--- a/src/test/java/excelUtilities/log2.xlsx
+++ b/src/test/java/excelUtilities/log2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="421">
   <si>
     <t>Senaryo adı</t>
   </si>
@@ -1143,6 +1143,138 @@
   </si>
   <si>
     <t>2022-05-30 16:17:08</t>
+  </si>
+  <si>
+    <t>2022-05-31 10:59:57</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:00:26</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:06:24</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:07:21</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:09:18</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:09:39</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:20:28</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:21:52</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:22:57</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:23:19</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:24:26</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:24:46</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:25:42</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:26:03</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:40:02</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:40:48</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:41:11</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:41:30</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:41:52</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:42:07</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:42:38</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:43:21</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:44:34</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:46:20</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:46:40</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:49:34</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:49:54</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:53:35</t>
+  </si>
+  <si>
+    <t>2022-05-31 11:53:55</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:06:03</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:06:30</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:12:58</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:13:20</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:13:21</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:14:43</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:15:06</t>
+  </si>
+  <si>
+    <t>Arama butonları</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:38:14</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:39:08</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:42:27</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:50:02</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:50:20</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:56:07</t>
+  </si>
+  <si>
+    <t>2022-05-31 12:56:25</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C695"/>
+  <dimension ref="A1:C779"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8838,6 +8970,930 @@
         <v>376</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>0</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>363</v>
+      </c>
+      <c r="B697" t="s">
+        <v>4</v>
+      </c>
+      <c r="C697" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>363</v>
+      </c>
+      <c r="B698" t="s">
+        <v>11</v>
+      </c>
+      <c r="C698" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>363</v>
+      </c>
+      <c r="B699" t="s">
+        <v>8</v>
+      </c>
+      <c r="C699" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>0</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1</v>
+      </c>
+      <c r="C700" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>363</v>
+      </c>
+      <c r="B701" t="s">
+        <v>4</v>
+      </c>
+      <c r="C701" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>363</v>
+      </c>
+      <c r="B702" t="s">
+        <v>11</v>
+      </c>
+      <c r="C702" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>363</v>
+      </c>
+      <c r="B703" t="s">
+        <v>8</v>
+      </c>
+      <c r="C703" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>0</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1</v>
+      </c>
+      <c r="C704" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>363</v>
+      </c>
+      <c r="B705" t="s">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>363</v>
+      </c>
+      <c r="B706" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>363</v>
+      </c>
+      <c r="B707" t="s">
+        <v>8</v>
+      </c>
+      <c r="C707" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>0</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>363</v>
+      </c>
+      <c r="B709" t="s">
+        <v>4</v>
+      </c>
+      <c r="C709" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>363</v>
+      </c>
+      <c r="B710" t="s">
+        <v>11</v>
+      </c>
+      <c r="C710" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>363</v>
+      </c>
+      <c r="B711" t="s">
+        <v>8</v>
+      </c>
+      <c r="C711" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>0</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1</v>
+      </c>
+      <c r="C712" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>363</v>
+      </c>
+      <c r="B713" t="s">
+        <v>4</v>
+      </c>
+      <c r="C713" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>363</v>
+      </c>
+      <c r="B714" t="s">
+        <v>11</v>
+      </c>
+      <c r="C714" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>363</v>
+      </c>
+      <c r="B715" t="s">
+        <v>8</v>
+      </c>
+      <c r="C715" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>0</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1</v>
+      </c>
+      <c r="C716" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>363</v>
+      </c>
+      <c r="B717" t="s">
+        <v>4</v>
+      </c>
+      <c r="C717" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>363</v>
+      </c>
+      <c r="B718" t="s">
+        <v>11</v>
+      </c>
+      <c r="C718" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>363</v>
+      </c>
+      <c r="B719" t="s">
+        <v>8</v>
+      </c>
+      <c r="C719" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>0</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1</v>
+      </c>
+      <c r="C720" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>363</v>
+      </c>
+      <c r="B721" t="s">
+        <v>4</v>
+      </c>
+      <c r="C721" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>363</v>
+      </c>
+      <c r="B722" t="s">
+        <v>11</v>
+      </c>
+      <c r="C722" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>363</v>
+      </c>
+      <c r="B723" t="s">
+        <v>8</v>
+      </c>
+      <c r="C723" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>0</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>363</v>
+      </c>
+      <c r="B725" t="s">
+        <v>4</v>
+      </c>
+      <c r="C725" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>363</v>
+      </c>
+      <c r="B726" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>363</v>
+      </c>
+      <c r="B727" t="s">
+        <v>8</v>
+      </c>
+      <c r="C727" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>0</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1</v>
+      </c>
+      <c r="C728" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>363</v>
+      </c>
+      <c r="B729" t="s">
+        <v>4</v>
+      </c>
+      <c r="C729" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>363</v>
+      </c>
+      <c r="B730" t="s">
+        <v>11</v>
+      </c>
+      <c r="C730" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>363</v>
+      </c>
+      <c r="B731" t="s">
+        <v>8</v>
+      </c>
+      <c r="C731" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>0</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>363</v>
+      </c>
+      <c r="B733" t="s">
+        <v>4</v>
+      </c>
+      <c r="C733" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>363</v>
+      </c>
+      <c r="B734" t="s">
+        <v>11</v>
+      </c>
+      <c r="C734" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>363</v>
+      </c>
+      <c r="B735" t="s">
+        <v>8</v>
+      </c>
+      <c r="C735" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>0</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>363</v>
+      </c>
+      <c r="B737" t="s">
+        <v>4</v>
+      </c>
+      <c r="C737" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>363</v>
+      </c>
+      <c r="B738" t="s">
+        <v>11</v>
+      </c>
+      <c r="C738" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>363</v>
+      </c>
+      <c r="B739" t="s">
+        <v>8</v>
+      </c>
+      <c r="C739" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>0</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1</v>
+      </c>
+      <c r="C740" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>363</v>
+      </c>
+      <c r="B741" t="s">
+        <v>4</v>
+      </c>
+      <c r="C741" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>0</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1</v>
+      </c>
+      <c r="C742" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>363</v>
+      </c>
+      <c r="B743" t="s">
+        <v>4</v>
+      </c>
+      <c r="C743" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>363</v>
+      </c>
+      <c r="B744" t="s">
+        <v>11</v>
+      </c>
+      <c r="C744" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>363</v>
+      </c>
+      <c r="B745" t="s">
+        <v>8</v>
+      </c>
+      <c r="C745" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>0</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1</v>
+      </c>
+      <c r="C746" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>363</v>
+      </c>
+      <c r="B747" t="s">
+        <v>4</v>
+      </c>
+      <c r="C747" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>363</v>
+      </c>
+      <c r="B748" t="s">
+        <v>11</v>
+      </c>
+      <c r="C748" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>363</v>
+      </c>
+      <c r="B749" t="s">
+        <v>8</v>
+      </c>
+      <c r="C749" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>0</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>363</v>
+      </c>
+      <c r="B751" t="s">
+        <v>4</v>
+      </c>
+      <c r="C751" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>363</v>
+      </c>
+      <c r="B752" t="s">
+        <v>11</v>
+      </c>
+      <c r="C752" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>363</v>
+      </c>
+      <c r="B753" t="s">
+        <v>8</v>
+      </c>
+      <c r="C753" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>0</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>363</v>
+      </c>
+      <c r="B755" t="s">
+        <v>4</v>
+      </c>
+      <c r="C755" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>363</v>
+      </c>
+      <c r="B756" t="s">
+        <v>11</v>
+      </c>
+      <c r="C756" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>363</v>
+      </c>
+      <c r="B757" t="s">
+        <v>8</v>
+      </c>
+      <c r="C757" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>0</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>363</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+      <c r="C759" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>363</v>
+      </c>
+      <c r="B760" t="s">
+        <v>11</v>
+      </c>
+      <c r="C760" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>363</v>
+      </c>
+      <c r="B761" t="s">
+        <v>8</v>
+      </c>
+      <c r="C761" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>0</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>363</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4</v>
+      </c>
+      <c r="C763" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>363</v>
+      </c>
+      <c r="B764" t="s">
+        <v>11</v>
+      </c>
+      <c r="C764" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>363</v>
+      </c>
+      <c r="B765" t="s">
+        <v>8</v>
+      </c>
+      <c r="C765" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>0</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>413</v>
+      </c>
+      <c r="B767" t="s">
+        <v>4</v>
+      </c>
+      <c r="C767" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>0</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>413</v>
+      </c>
+      <c r="B769" t="s">
+        <v>4</v>
+      </c>
+      <c r="C769" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>0</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>413</v>
+      </c>
+      <c r="B771" t="s">
+        <v>4</v>
+      </c>
+      <c r="C771" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>0</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>413</v>
+      </c>
+      <c r="B773" t="s">
+        <v>4</v>
+      </c>
+      <c r="C773" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>413</v>
+      </c>
+      <c r="B774" t="s">
+        <v>6</v>
+      </c>
+      <c r="C774" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>413</v>
+      </c>
+      <c r="B775" t="s">
+        <v>8</v>
+      </c>
+      <c r="C775" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>0</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>413</v>
+      </c>
+      <c r="B777" t="s">
+        <v>4</v>
+      </c>
+      <c r="C777" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>413</v>
+      </c>
+      <c r="B778" t="s">
+        <v>6</v>
+      </c>
+      <c r="C778" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>413</v>
+      </c>
+      <c r="B779" t="s">
+        <v>8</v>
+      </c>
+      <c r="C779" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/excelUtilities/log2.xlsx
+++ b/src/test/java/excelUtilities/log2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="461">
   <si>
     <t>Senaryo adı</t>
   </si>
@@ -1275,6 +1275,126 @@
   </si>
   <si>
     <t>2022-05-31 12:56:25</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:25:23</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:25:41</t>
+  </si>
+  <si>
+    <t>Arama butonları2</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:30:58</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:31:17</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:32:09</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:32:26</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:32:54</t>
+  </si>
+  <si>
+    <t>2022-05-31 14:33:25</t>
+  </si>
+  <si>
+    <t>ürünlerin karşılaştırılması</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:05:22</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:06:10</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:29:50</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:30:18</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:30:19</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:47:10</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:47:36</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:48:53</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:49:42</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:50:44</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:51:33</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:52:04</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:52:51</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:53:28</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:58:06</t>
+  </si>
+  <si>
+    <t>2022-05-31 15:58:34</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:00:14</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:00:48</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:27:30</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:27:33</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:27:34</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:29:53</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:30:12</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:30:13</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:30:35</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:30:54</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:32:18</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:32:45</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:34:01</t>
+  </si>
+  <si>
+    <t>2022-05-31 16:35:02</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C779"/>
+  <dimension ref="A1:C849"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9894,6 +10014,776 @@
         <v>420</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>0</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>413</v>
+      </c>
+      <c r="B781" t="s">
+        <v>4</v>
+      </c>
+      <c r="C781" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>413</v>
+      </c>
+      <c r="B782" t="s">
+        <v>6</v>
+      </c>
+      <c r="C782" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>413</v>
+      </c>
+      <c r="B783" t="s">
+        <v>8</v>
+      </c>
+      <c r="C783" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>0</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>423</v>
+      </c>
+      <c r="B785" t="s">
+        <v>4</v>
+      </c>
+      <c r="C785" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>423</v>
+      </c>
+      <c r="B786" t="s">
+        <v>11</v>
+      </c>
+      <c r="C786" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>423</v>
+      </c>
+      <c r="B787" t="s">
+        <v>8</v>
+      </c>
+      <c r="C787" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>0</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>423</v>
+      </c>
+      <c r="B789" t="s">
+        <v>4</v>
+      </c>
+      <c r="C789" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>423</v>
+      </c>
+      <c r="B790" t="s">
+        <v>6</v>
+      </c>
+      <c r="C790" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>423</v>
+      </c>
+      <c r="B791" t="s">
+        <v>8</v>
+      </c>
+      <c r="C791" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>0</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>423</v>
+      </c>
+      <c r="B793" t="s">
+        <v>4</v>
+      </c>
+      <c r="C793" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>423</v>
+      </c>
+      <c r="B794" t="s">
+        <v>6</v>
+      </c>
+      <c r="C794" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>423</v>
+      </c>
+      <c r="B795" t="s">
+        <v>8</v>
+      </c>
+      <c r="C795" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>0</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>430</v>
+      </c>
+      <c r="B797" t="s">
+        <v>4</v>
+      </c>
+      <c r="C797" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>430</v>
+      </c>
+      <c r="B798" t="s">
+        <v>6</v>
+      </c>
+      <c r="C798" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>430</v>
+      </c>
+      <c r="B799" t="s">
+        <v>8</v>
+      </c>
+      <c r="C799" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>0</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>430</v>
+      </c>
+      <c r="B801" t="s">
+        <v>4</v>
+      </c>
+      <c r="C801" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>430</v>
+      </c>
+      <c r="B802" t="s">
+        <v>11</v>
+      </c>
+      <c r="C802" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>430</v>
+      </c>
+      <c r="B803" t="s">
+        <v>8</v>
+      </c>
+      <c r="C803" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>0</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>430</v>
+      </c>
+      <c r="B805" t="s">
+        <v>4</v>
+      </c>
+      <c r="C805" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>430</v>
+      </c>
+      <c r="B806" t="s">
+        <v>11</v>
+      </c>
+      <c r="C806" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>430</v>
+      </c>
+      <c r="B807" t="s">
+        <v>8</v>
+      </c>
+      <c r="C807" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>0</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>430</v>
+      </c>
+      <c r="B809" t="s">
+        <v>4</v>
+      </c>
+      <c r="C809" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>430</v>
+      </c>
+      <c r="B810" t="s">
+        <v>11</v>
+      </c>
+      <c r="C810" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>430</v>
+      </c>
+      <c r="B811" t="s">
+        <v>8</v>
+      </c>
+      <c r="C811" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>0</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>430</v>
+      </c>
+      <c r="B813" t="s">
+        <v>4</v>
+      </c>
+      <c r="C813" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>430</v>
+      </c>
+      <c r="B814" t="s">
+        <v>11</v>
+      </c>
+      <c r="C814" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>430</v>
+      </c>
+      <c r="B815" t="s">
+        <v>8</v>
+      </c>
+      <c r="C815" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>0</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>430</v>
+      </c>
+      <c r="B817" t="s">
+        <v>4</v>
+      </c>
+      <c r="C817" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>430</v>
+      </c>
+      <c r="B818" t="s">
+        <v>11</v>
+      </c>
+      <c r="C818" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>430</v>
+      </c>
+      <c r="B819" t="s">
+        <v>8</v>
+      </c>
+      <c r="C819" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>0</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>430</v>
+      </c>
+      <c r="B821" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>0</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>430</v>
+      </c>
+      <c r="B823" t="s">
+        <v>4</v>
+      </c>
+      <c r="C823" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>430</v>
+      </c>
+      <c r="B824" t="s">
+        <v>6</v>
+      </c>
+      <c r="C824" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>430</v>
+      </c>
+      <c r="B825" t="s">
+        <v>8</v>
+      </c>
+      <c r="C825" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>0</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>430</v>
+      </c>
+      <c r="B827" t="s">
+        <v>4</v>
+      </c>
+      <c r="C827" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>430</v>
+      </c>
+      <c r="B828" t="s">
+        <v>11</v>
+      </c>
+      <c r="C828" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>430</v>
+      </c>
+      <c r="B829" t="s">
+        <v>8</v>
+      </c>
+      <c r="C829" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>0</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>430</v>
+      </c>
+      <c r="B831" t="s">
+        <v>4</v>
+      </c>
+      <c r="C831" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>430</v>
+      </c>
+      <c r="B832" t="s">
+        <v>11</v>
+      </c>
+      <c r="C832" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>430</v>
+      </c>
+      <c r="B833" t="s">
+        <v>8</v>
+      </c>
+      <c r="C833" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>0</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>430</v>
+      </c>
+      <c r="B835" t="s">
+        <v>4</v>
+      </c>
+      <c r="C835" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>430</v>
+      </c>
+      <c r="B836" t="s">
+        <v>11</v>
+      </c>
+      <c r="C836" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>430</v>
+      </c>
+      <c r="B837" t="s">
+        <v>8</v>
+      </c>
+      <c r="C837" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>0</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>430</v>
+      </c>
+      <c r="B839" t="s">
+        <v>4</v>
+      </c>
+      <c r="C839" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>430</v>
+      </c>
+      <c r="B840" t="s">
+        <v>11</v>
+      </c>
+      <c r="C840" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>430</v>
+      </c>
+      <c r="B841" t="s">
+        <v>8</v>
+      </c>
+      <c r="C841" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>0</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>430</v>
+      </c>
+      <c r="B843" t="s">
+        <v>4</v>
+      </c>
+      <c r="C843" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>430</v>
+      </c>
+      <c r="B844" t="s">
+        <v>11</v>
+      </c>
+      <c r="C844" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>430</v>
+      </c>
+      <c r="B845" t="s">
+        <v>8</v>
+      </c>
+      <c r="C845" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>0</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>430</v>
+      </c>
+      <c r="B847" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>430</v>
+      </c>
+      <c r="B848" t="s">
+        <v>11</v>
+      </c>
+      <c r="C848" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>430</v>
+      </c>
+      <c r="B849" t="s">
+        <v>8</v>
+      </c>
+      <c r="C849" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/excelUtilities/log2.xlsx
+++ b/src/test/java/excelUtilities/log2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="535">
   <si>
     <t>Senaryo adı</t>
   </si>
@@ -1395,6 +1395,228 @@
   </si>
   <si>
     <t>2022-05-31 16:35:02</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:07:24</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:09:04</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:16:36</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:17:58</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:17:59</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:20:25</t>
+  </si>
+  <si>
+    <t>2022-06-01 09:20:52</t>
+  </si>
+  <si>
+    <t>Ürünlerin sepete doğru bilgilerle eklenemsi</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:10:01</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:11:18</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:11:56</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:30:10</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:30:56</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:31:25</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:31:50</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:32:28</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:33:18</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:34:11</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:39:04</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:40:01</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:41:29</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:42:46</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:43:38</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:44:50</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:46:10</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:49:47</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:50:23</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:58:54</t>
+  </si>
+  <si>
+    <t>2022-06-01 10:59:29</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:05:04</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:05:49</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:19:02</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:19:49</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:20:04</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:20:42</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:21:20</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:22:02</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:25:48</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:26:48</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:27:44</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:28:31</t>
+  </si>
+  <si>
+    <t>2022-06-01 11:29:19</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:11:22</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:12:37</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:12:59</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:14:39</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:15:35</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:16:01</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:17:18</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:41:15</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:42:04</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:45:30</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:46:41</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:46:42</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:50:40</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:51:22</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:51:33</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:52:26</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:56:03</t>
+  </si>
+  <si>
+    <t>2022-06-01 12:57:02</t>
+  </si>
+  <si>
+    <t>2022-06-01 13:00:51</t>
+  </si>
+  <si>
+    <t>2022-06-01 13:01:59</t>
+  </si>
+  <si>
+    <t>2022-06-01 13:05:24</t>
+  </si>
+  <si>
+    <t>2022-06-01 13:06:31</t>
+  </si>
+  <si>
+    <t>2022-06-01 13:06:32</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:47:26</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:48:06</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:55:10</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:56:14</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:57:37</t>
+  </si>
+  <si>
+    <t>2022-06-01 14:58:45</t>
+  </si>
+  <si>
+    <t>2022-06-01 15:00:06</t>
+  </si>
+  <si>
+    <t>2022-06-01 15:00:50</t>
+  </si>
+  <si>
+    <t>2022-06-01 15:00:51</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C849"/>
+  <dimension ref="A1:C987"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10784,6 +11006,1524 @@
         <v>460</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>0</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>430</v>
+      </c>
+      <c r="B851" t="s">
+        <v>4</v>
+      </c>
+      <c r="C851" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>430</v>
+      </c>
+      <c r="B852" t="s">
+        <v>11</v>
+      </c>
+      <c r="C852" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>430</v>
+      </c>
+      <c r="B853" t="s">
+        <v>8</v>
+      </c>
+      <c r="C853" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>0</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>430</v>
+      </c>
+      <c r="B855" t="s">
+        <v>4</v>
+      </c>
+      <c r="C855" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>430</v>
+      </c>
+      <c r="B856" t="s">
+        <v>11</v>
+      </c>
+      <c r="C856" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>430</v>
+      </c>
+      <c r="B857" t="s">
+        <v>8</v>
+      </c>
+      <c r="C857" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>0</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1</v>
+      </c>
+      <c r="C858" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>430</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4</v>
+      </c>
+      <c r="C859" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>430</v>
+      </c>
+      <c r="B860" t="s">
+        <v>6</v>
+      </c>
+      <c r="C860" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>430</v>
+      </c>
+      <c r="B861" t="s">
+        <v>8</v>
+      </c>
+      <c r="C861" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>0</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1</v>
+      </c>
+      <c r="C862" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>468</v>
+      </c>
+      <c r="B863" t="s">
+        <v>4</v>
+      </c>
+      <c r="C863" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>0</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>468</v>
+      </c>
+      <c r="B865" t="s">
+        <v>4</v>
+      </c>
+      <c r="C865" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>468</v>
+      </c>
+      <c r="B866" t="s">
+        <v>6</v>
+      </c>
+      <c r="C866" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>468</v>
+      </c>
+      <c r="B867" t="s">
+        <v>8</v>
+      </c>
+      <c r="C867" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>0</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>468</v>
+      </c>
+      <c r="B869" t="s">
+        <v>4</v>
+      </c>
+      <c r="C869" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>468</v>
+      </c>
+      <c r="B870" t="s">
+        <v>6</v>
+      </c>
+      <c r="C870" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>468</v>
+      </c>
+      <c r="B871" t="s">
+        <v>8</v>
+      </c>
+      <c r="C871" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>0</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1</v>
+      </c>
+      <c r="C872" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>468</v>
+      </c>
+      <c r="B873" t="s">
+        <v>4</v>
+      </c>
+      <c r="C873" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>468</v>
+      </c>
+      <c r="B874" t="s">
+        <v>11</v>
+      </c>
+      <c r="C874" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>468</v>
+      </c>
+      <c r="B875" t="s">
+        <v>8</v>
+      </c>
+      <c r="C875" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>0</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1</v>
+      </c>
+      <c r="C876" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>468</v>
+      </c>
+      <c r="B877" t="s">
+        <v>4</v>
+      </c>
+      <c r="C877" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>468</v>
+      </c>
+      <c r="B878" t="s">
+        <v>11</v>
+      </c>
+      <c r="C878" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>468</v>
+      </c>
+      <c r="B879" t="s">
+        <v>8</v>
+      </c>
+      <c r="C879" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>0</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>468</v>
+      </c>
+      <c r="B881" t="s">
+        <v>4</v>
+      </c>
+      <c r="C881" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>0</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>468</v>
+      </c>
+      <c r="B883" t="s">
+        <v>4</v>
+      </c>
+      <c r="C883" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>0</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1</v>
+      </c>
+      <c r="C884" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>468</v>
+      </c>
+      <c r="B885" t="s">
+        <v>4</v>
+      </c>
+      <c r="C885" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>0</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1</v>
+      </c>
+      <c r="C886" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>468</v>
+      </c>
+      <c r="B887" t="s">
+        <v>4</v>
+      </c>
+      <c r="C887" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>0</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1</v>
+      </c>
+      <c r="C888" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>468</v>
+      </c>
+      <c r="B889" t="s">
+        <v>4</v>
+      </c>
+      <c r="C889" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>468</v>
+      </c>
+      <c r="B890" t="s">
+        <v>6</v>
+      </c>
+      <c r="C890" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>468</v>
+      </c>
+      <c r="B891" t="s">
+        <v>8</v>
+      </c>
+      <c r="C891" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>0</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1</v>
+      </c>
+      <c r="C892" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>468</v>
+      </c>
+      <c r="B893" t="s">
+        <v>4</v>
+      </c>
+      <c r="C893" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>0</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>468</v>
+      </c>
+      <c r="B895" t="s">
+        <v>4</v>
+      </c>
+      <c r="C895" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>0</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>468</v>
+      </c>
+      <c r="B897" t="s">
+        <v>4</v>
+      </c>
+      <c r="C897" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>468</v>
+      </c>
+      <c r="B898" t="s">
+        <v>6</v>
+      </c>
+      <c r="C898" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>468</v>
+      </c>
+      <c r="B899" t="s">
+        <v>8</v>
+      </c>
+      <c r="C899" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>0</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>468</v>
+      </c>
+      <c r="B901" t="s">
+        <v>4</v>
+      </c>
+      <c r="C901" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>468</v>
+      </c>
+      <c r="B902" t="s">
+        <v>6</v>
+      </c>
+      <c r="C902" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>468</v>
+      </c>
+      <c r="B903" t="s">
+        <v>8</v>
+      </c>
+      <c r="C903" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>0</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1</v>
+      </c>
+      <c r="C904" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>468</v>
+      </c>
+      <c r="B905" t="s">
+        <v>4</v>
+      </c>
+      <c r="C905" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>468</v>
+      </c>
+      <c r="B906" t="s">
+        <v>6</v>
+      </c>
+      <c r="C906" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>468</v>
+      </c>
+      <c r="B907" t="s">
+        <v>8</v>
+      </c>
+      <c r="C907" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>0</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>468</v>
+      </c>
+      <c r="B909" t="s">
+        <v>4</v>
+      </c>
+      <c r="C909" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>468</v>
+      </c>
+      <c r="B910" t="s">
+        <v>11</v>
+      </c>
+      <c r="C910" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>468</v>
+      </c>
+      <c r="B911" t="s">
+        <v>8</v>
+      </c>
+      <c r="C911" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>0</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>468</v>
+      </c>
+      <c r="B913" t="s">
+        <v>4</v>
+      </c>
+      <c r="C913" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>468</v>
+      </c>
+      <c r="B914" t="s">
+        <v>6</v>
+      </c>
+      <c r="C914" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>468</v>
+      </c>
+      <c r="B915" t="s">
+        <v>8</v>
+      </c>
+      <c r="C915" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>0</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>468</v>
+      </c>
+      <c r="B917" t="s">
+        <v>4</v>
+      </c>
+      <c r="C917" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>468</v>
+      </c>
+      <c r="B918" t="s">
+        <v>11</v>
+      </c>
+      <c r="C918" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>468</v>
+      </c>
+      <c r="B919" t="s">
+        <v>8</v>
+      </c>
+      <c r="C919" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>0</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>468</v>
+      </c>
+      <c r="B921" t="s">
+        <v>4</v>
+      </c>
+      <c r="C921" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>0</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>468</v>
+      </c>
+      <c r="B923" t="s">
+        <v>4</v>
+      </c>
+      <c r="C923" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>468</v>
+      </c>
+      <c r="B924" t="s">
+        <v>11</v>
+      </c>
+      <c r="C924" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>468</v>
+      </c>
+      <c r="B925" t="s">
+        <v>8</v>
+      </c>
+      <c r="C925" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>0</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1</v>
+      </c>
+      <c r="C926" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>468</v>
+      </c>
+      <c r="B927" t="s">
+        <v>4</v>
+      </c>
+      <c r="C927" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>468</v>
+      </c>
+      <c r="B928" t="s">
+        <v>11</v>
+      </c>
+      <c r="C928" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>468</v>
+      </c>
+      <c r="B929" t="s">
+        <v>8</v>
+      </c>
+      <c r="C929" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>0</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>468</v>
+      </c>
+      <c r="B931" t="s">
+        <v>4</v>
+      </c>
+      <c r="C931" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>468</v>
+      </c>
+      <c r="B932" t="s">
+        <v>11</v>
+      </c>
+      <c r="C932" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>468</v>
+      </c>
+      <c r="B933" t="s">
+        <v>8</v>
+      </c>
+      <c r="C933" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>0</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>468</v>
+      </c>
+      <c r="B935" t="s">
+        <v>4</v>
+      </c>
+      <c r="C935" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>0</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>468</v>
+      </c>
+      <c r="B937" t="s">
+        <v>4</v>
+      </c>
+      <c r="C937" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>468</v>
+      </c>
+      <c r="B938" t="s">
+        <v>11</v>
+      </c>
+      <c r="C938" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>468</v>
+      </c>
+      <c r="B939" t="s">
+        <v>8</v>
+      </c>
+      <c r="C939" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>0</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>468</v>
+      </c>
+      <c r="B941" t="s">
+        <v>4</v>
+      </c>
+      <c r="C941" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>468</v>
+      </c>
+      <c r="B942" t="s">
+        <v>11</v>
+      </c>
+      <c r="C942" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>468</v>
+      </c>
+      <c r="B943" t="s">
+        <v>8</v>
+      </c>
+      <c r="C943" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>0</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1</v>
+      </c>
+      <c r="C944" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>468</v>
+      </c>
+      <c r="B945" t="s">
+        <v>4</v>
+      </c>
+      <c r="C945" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>468</v>
+      </c>
+      <c r="B946" t="s">
+        <v>6</v>
+      </c>
+      <c r="C946" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>468</v>
+      </c>
+      <c r="B947" t="s">
+        <v>8</v>
+      </c>
+      <c r="C947" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>0</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1</v>
+      </c>
+      <c r="C948" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>468</v>
+      </c>
+      <c r="B949" t="s">
+        <v>4</v>
+      </c>
+      <c r="C949" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>468</v>
+      </c>
+      <c r="B950" t="s">
+        <v>6</v>
+      </c>
+      <c r="C950" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>468</v>
+      </c>
+      <c r="B951" t="s">
+        <v>8</v>
+      </c>
+      <c r="C951" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>0</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1</v>
+      </c>
+      <c r="C952" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>468</v>
+      </c>
+      <c r="B953" t="s">
+        <v>4</v>
+      </c>
+      <c r="C953" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>468</v>
+      </c>
+      <c r="B954" t="s">
+        <v>11</v>
+      </c>
+      <c r="C954" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>468</v>
+      </c>
+      <c r="B955" t="s">
+        <v>8</v>
+      </c>
+      <c r="C955" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>0</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>468</v>
+      </c>
+      <c r="B957" t="s">
+        <v>4</v>
+      </c>
+      <c r="C957" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>468</v>
+      </c>
+      <c r="B958" t="s">
+        <v>6</v>
+      </c>
+      <c r="C958" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>468</v>
+      </c>
+      <c r="B959" t="s">
+        <v>8</v>
+      </c>
+      <c r="C959" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>0</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>468</v>
+      </c>
+      <c r="B961" t="s">
+        <v>4</v>
+      </c>
+      <c r="C961" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>468</v>
+      </c>
+      <c r="B962" t="s">
+        <v>6</v>
+      </c>
+      <c r="C962" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>468</v>
+      </c>
+      <c r="B963" t="s">
+        <v>8</v>
+      </c>
+      <c r="C963" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>0</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>468</v>
+      </c>
+      <c r="B965" t="s">
+        <v>4</v>
+      </c>
+      <c r="C965" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>468</v>
+      </c>
+      <c r="B966" t="s">
+        <v>6</v>
+      </c>
+      <c r="C966" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>468</v>
+      </c>
+      <c r="B967" t="s">
+        <v>8</v>
+      </c>
+      <c r="C967" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>0</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1</v>
+      </c>
+      <c r="C968" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>468</v>
+      </c>
+      <c r="B969" t="s">
+        <v>4</v>
+      </c>
+      <c r="C969" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>468</v>
+      </c>
+      <c r="B970" t="s">
+        <v>6</v>
+      </c>
+      <c r="C970" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>468</v>
+      </c>
+      <c r="B971" t="s">
+        <v>8</v>
+      </c>
+      <c r="C971" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>0</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1</v>
+      </c>
+      <c r="C972" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>468</v>
+      </c>
+      <c r="B973" t="s">
+        <v>4</v>
+      </c>
+      <c r="C973" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>468</v>
+      </c>
+      <c r="B974" t="s">
+        <v>11</v>
+      </c>
+      <c r="C974" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>468</v>
+      </c>
+      <c r="B975" t="s">
+        <v>8</v>
+      </c>
+      <c r="C975" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>0</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1</v>
+      </c>
+      <c r="C976" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>468</v>
+      </c>
+      <c r="B977" t="s">
+        <v>4</v>
+      </c>
+      <c r="C977" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>468</v>
+      </c>
+      <c r="B978" t="s">
+        <v>11</v>
+      </c>
+      <c r="C978" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>468</v>
+      </c>
+      <c r="B979" t="s">
+        <v>8</v>
+      </c>
+      <c r="C979" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>0</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1</v>
+      </c>
+      <c r="C980" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>468</v>
+      </c>
+      <c r="B981" t="s">
+        <v>4</v>
+      </c>
+      <c r="C981" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>468</v>
+      </c>
+      <c r="B982" t="s">
+        <v>11</v>
+      </c>
+      <c r="C982" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>468</v>
+      </c>
+      <c r="B983" t="s">
+        <v>8</v>
+      </c>
+      <c r="C983" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>0</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1</v>
+      </c>
+      <c r="C984" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>468</v>
+      </c>
+      <c r="B985" t="s">
+        <v>4</v>
+      </c>
+      <c r="C985" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>468</v>
+      </c>
+      <c r="B986" t="s">
+        <v>11</v>
+      </c>
+      <c r="C986" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>468</v>
+      </c>
+      <c r="B987" t="s">
+        <v>8</v>
+      </c>
+      <c r="C987" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/excelUtilities/log2.xlsx
+++ b/src/test/java/excelUtilities/log2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="548">
   <si>
     <t>Senaryo adı</t>
   </si>
@@ -1617,6 +1617,45 @@
   </si>
   <si>
     <t>2022-06-01 15:00:51</t>
+  </si>
+  <si>
+    <t>2022-06-09 14:32:45</t>
+  </si>
+  <si>
+    <t>2022-06-09 14:33:06</t>
+  </si>
+  <si>
+    <t>2022-06-09 14:33:07</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:03:32</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:04:20</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:09:52</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:10:42</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:14:30</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:15:07</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:19:19</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:19:56</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:22:21</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:22:45</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C987"/>
+  <dimension ref="A1:C1011"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12524,6 +12563,270 @@
         <v>534</v>
       </c>
     </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>0</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1</v>
+      </c>
+      <c r="C988" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>205</v>
+      </c>
+      <c r="B989" t="s">
+        <v>4</v>
+      </c>
+      <c r="C989" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>205</v>
+      </c>
+      <c r="B990" t="s">
+        <v>6</v>
+      </c>
+      <c r="C990" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>205</v>
+      </c>
+      <c r="B991" t="s">
+        <v>8</v>
+      </c>
+      <c r="C991" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>0</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1</v>
+      </c>
+      <c r="C992" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>205</v>
+      </c>
+      <c r="B993" t="s">
+        <v>4</v>
+      </c>
+      <c r="C993" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>205</v>
+      </c>
+      <c r="B994" t="s">
+        <v>6</v>
+      </c>
+      <c r="C994" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>205</v>
+      </c>
+      <c r="B995" t="s">
+        <v>8</v>
+      </c>
+      <c r="C995" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>0</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1</v>
+      </c>
+      <c r="C996" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>205</v>
+      </c>
+      <c r="B997" t="s">
+        <v>4</v>
+      </c>
+      <c r="C997" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>205</v>
+      </c>
+      <c r="B998" t="s">
+        <v>6</v>
+      </c>
+      <c r="C998" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>205</v>
+      </c>
+      <c r="B999" t="s">
+        <v>8</v>
+      </c>
+      <c r="C999" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
